--- a/biology/Botanique/Striga/Striga.xlsx
+++ b/biology/Botanique/Striga/Striga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Striga est un genre de plantes holo-hémiparasites épirhizes de la famille des Orobanchaceae. Les strigas font des ravages dans les cultures de céréales, principalement en Afrique subsaharienne, où elles sont connues sous le nom d'« herbe des sorcières ».
 </t>
@@ -511,13 +523,15 @@
           <t>Hôtes et symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que la plupart des espèces de Striga  ne sont pas des pathogènes qui affectent l'agriculture humaine, certaines espèces ont des effets dévastateurs sur les cultures, en particulier celles cultivées par les agriculteurs de subsistance[2].
-Les cultures les plus fréquemment affectées sont le maïs, le sorgho, le riz et la canne à sucre[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que la plupart des espèces de Striga  ne sont pas des pathogènes qui affectent l'agriculture humaine, certaines espèces ont des effets dévastateurs sur les cultures, en particulier celles cultivées par les agriculteurs de subsistance.
+Les cultures les plus fréquemment affectées sont le maïs, le sorgho, le riz et la canne à sucre,.
 Onze espèces de Striga sont connues pour attaquer les cultures, mais trois d'entre elles causent la plus grande partie des dégâts : Striga asiatica, Striga gesnerioides et Striga hermonthica.
-Les espèces de Striga parasitent notamment le maïs, le millet, le sorgho, la canne à sucre, le riz, les légumineuses, et de nombreuses graminées adventices[5]. Elles sont capables de réduire considérablement les rendements, et dans certains cas, d'anéantir la récolte[3].
-Les symptômes manifestés par les plantes hôtes, tels que le rabougrissement, le flétrissement et la chlorose, sont similaires à ceux observés en cas de sécheresse, de carence nutritionnelle et de maladie vasculaire[3],[5],[6].
+Les espèces de Striga parasitent notamment le maïs, le millet, le sorgho, la canne à sucre, le riz, les légumineuses, et de nombreuses graminées adventices. Elles sont capables de réduire considérablement les rendements, et dans certains cas, d'anéantir la récolte.
+Les symptômes manifestés par les plantes hôtes, tels que le rabougrissement, le flétrissement et la chlorose, sont similaires à ceux observés en cas de sécheresse, de carence nutritionnelle et de maladie vasculaire.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (20 octobre 2014)[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (20 octobre 2014) :
 Striga aequinoctialis
 Striga alba
 Striga angolensis
@@ -597,7 +613,7 @@
 Striga strigosa
 Striga sulphurea
 Striga yemenica
-Selon GRIN            (20 octobre 2014)[8] :
+Selon GRIN            (20 octobre 2014) :
 Striga aequinoctialis A. Chev. ex Hutch. &amp; Dalziel
 Striga angolensis K. I. Mohamed &amp; Musselman
 Striga angustifolia (D. Don) C. J. Saldanha
@@ -637,7 +653,7 @@
 Striga squamigera W. R. Barker
 Striga sulphurea Dalzell
 Striga yemenica Musselman &amp; Hepper
-Selon ITIS      (20 octobre 2014)[9] :
+Selon ITIS      (20 octobre 2014) :
 Striga asiatica (L.) Kuntze
 Striga densiflora (Benth.) Benth.
 Striga gesnerioides (Willd.) Vatke
@@ -669,9 +685,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (20 octobre 2014)[10] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (20 octobre 2014) :
 Striga angustifolia
 Striga asiatica
 Striga aspera
@@ -682,7 +700,7 @@
 Striga gesnerioides
 Striga hermonthica
 Striga passargei
-Selon The Plant List            (20 octobre 2014)[11] :
+Selon The Plant List            (20 octobre 2014) :
 Striga aequinoctialis A.Chev. ex Hutch. &amp; Dalziel
 Striga angolensis K.I.Mohamed &amp; Musselman
 Striga angustifolia (D. Don) C.J. Saldanha
@@ -709,7 +727,7 @@
 Striga primuloides A.Chev.
 Striga pubiflora Klotzsch
 Striga strigosa R.D.Good
-Selon Tropicos                                           (20 octobre 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 octobre 2014) (Attention liste brute contenant possiblement des synonymes) :
 Striga aequinoctialis A. Chev. ex Hutch. &amp; Dalziel
 Striga alba Pennell
 Striga angolensis K.I.Mohamed &amp; Musselman
